--- a/src/main/resources/drools/BookLoanRule.drl.xlsx
+++ b/src/main/resources/drools/BookLoanRule.drl.xlsx
@@ -23,9 +23,9 @@
 </t>
   </si>
   <si>
-    <t>demandlane.com.booklending.dto.Book,
-demandlane.com.booklending.dto.Loan,
-demandlane.com.booklending.dto.Member,
+    <t>demandlane.com.booklending.dto.BookDto,
+demandlane.com.booklending.dto.LoanDto,
+demandlane.com.booklending.dto.MemberDto,
 demandlane.com.booklending.dto.request.LoanRequest,
 java.time.LocalDate</t>
   </si>
